--- a/用例数据/沪权/普通开仓/测试结果.xlsx
+++ b/用例数据/沪权/普通开仓/测试结果.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="stkoptionsettlement" sheetId="1" r:id="rId1"/>
-    <sheet name="futureposition" sheetId="2" r:id="rId2"/>
-    <sheet name="futurepositiondetail" sheetId="3" r:id="rId3"/>
+    <sheet name="futureposition2022" sheetId="2" r:id="rId2"/>
+    <sheet name="futurepositiondetail2022" sheetId="3" r:id="rId3"/>
     <sheet name="futuretradinglog" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="355">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -559,9 +559,6 @@
     <t>0.6423</t>
   </si>
   <si>
-    <t>0.09738000</t>
-  </si>
-  <si>
     <t>972.00</t>
   </si>
   <si>
@@ -571,18 +568,12 @@
     <t>0.0455</t>
   </si>
   <si>
-    <t>0.12461300</t>
-  </si>
-  <si>
     <t>300ETF购11月4300</t>
   </si>
   <si>
     <t>0.5420</t>
   </si>
   <si>
-    <t>0.09449000</t>
-  </si>
-  <si>
     <t>943.00</t>
   </si>
   <si>
@@ -592,9 +583,6 @@
     <t>0.0750</t>
   </si>
   <si>
-    <t>0.09712800</t>
-  </si>
-  <si>
     <t>PARTID</t>
   </si>
   <si>
@@ -670,30 +658,18 @@
     <t>10000</t>
   </si>
   <si>
-    <t>1.80</t>
-  </si>
-  <si>
     <t>0.0943</t>
   </si>
   <si>
     <t>-943.00</t>
   </si>
   <si>
-    <t>1.90</t>
-  </si>
-  <si>
     <t>0.1248</t>
   </si>
   <si>
     <t>1248.00</t>
   </si>
   <si>
-    <t>1.87</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
     <t>BRIEFID</t>
   </si>
   <si>
@@ -964,128 +940,148 @@
     <t>0.420</t>
   </si>
   <si>
+    <t>30050079</t>
+  </si>
+  <si>
+    <t>20210110172013</t>
+  </si>
+  <si>
+    <t>20210110000000</t>
+  </si>
+  <si>
+    <t>5553147.590</t>
+  </si>
+  <si>
+    <t>30050077</t>
+  </si>
+  <si>
+    <t>5552846.360</t>
+  </si>
+  <si>
+    <t>30050082</t>
+  </si>
+  <si>
+    <t>5556336.280</t>
+  </si>
+  <si>
+    <t>30050081</t>
+  </si>
+  <si>
+    <t>5555365.000</t>
+  </si>
+  <si>
+    <t>6219.600</t>
+  </si>
+  <si>
+    <t>30050080</t>
+  </si>
+  <si>
+    <t>5554393.720</t>
+  </si>
+  <si>
+    <t>30050078</t>
+  </si>
+  <si>
+    <t>5554092.490</t>
+  </si>
+  <si>
+    <t>5924.60</t>
+  </si>
+  <si>
+    <t>6219.60</t>
+  </si>
+  <si>
+    <t>20210110171953</t>
+  </si>
+  <si>
+    <t>30050065</t>
+  </si>
+  <si>
+    <t>20210111000000</t>
+  </si>
+  <si>
+    <t>30050066</t>
+  </si>
+  <si>
+    <t>30050067</t>
+  </si>
+  <si>
+    <t>30050068</t>
+  </si>
+  <si>
+    <t>30050069</t>
+  </si>
+  <si>
+    <t>30050070</t>
+  </si>
+  <si>
+    <t>20210110092500</t>
+  </si>
+  <si>
+    <t>30050071</t>
+  </si>
+  <si>
+    <t>30050072</t>
+  </si>
+  <si>
+    <t>30050073</t>
+  </si>
+  <si>
+    <t>30050074</t>
+  </si>
+  <si>
+    <t>30050075</t>
+  </si>
+  <si>
+    <t>30050076</t>
+  </si>
+  <si>
     <t>PREPOSITIONQTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CURRENTPOSITIONQTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>YDPOSITIONUSABLEQTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MARGINUSEDAMT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TODAYPOSITIONCOST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDEXERCISEQTY</t>
+  </si>
+  <si>
+    <t>YDEXERCISEQTY</t>
+  </si>
+  <si>
+    <t>20221216000000</t>
+  </si>
+  <si>
+    <t>000117212005</t>
+  </si>
+  <si>
+    <t>焦振鹏沪权</t>
+  </si>
+  <si>
+    <t>0.09433000</t>
+  </si>
+  <si>
+    <t>0.12477000</t>
+  </si>
+  <si>
+    <t>0.09717000</t>
+  </si>
+  <si>
+    <t>0.09723000</t>
   </si>
   <si>
     <t>OPENCOMMISION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COVEREDFLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30050079</t>
-  </si>
-  <si>
-    <t>20210110172013</t>
-  </si>
-  <si>
-    <t>20210110000000</t>
-  </si>
-  <si>
-    <t>5553147.590</t>
-  </si>
-  <si>
-    <t>30050077</t>
-  </si>
-  <si>
-    <t>5552846.360</t>
-  </si>
-  <si>
-    <t>30050082</t>
-  </si>
-  <si>
-    <t>5556336.280</t>
-  </si>
-  <si>
-    <t>30050081</t>
-  </si>
-  <si>
-    <t>5555365.000</t>
-  </si>
-  <si>
-    <t>6219.600</t>
-  </si>
-  <si>
-    <t>30050080</t>
-  </si>
-  <si>
-    <t>5554393.720</t>
-  </si>
-  <si>
-    <t>30050078</t>
-  </si>
-  <si>
-    <t>5554092.490</t>
-  </si>
-  <si>
-    <t>5924.60</t>
-  </si>
-  <si>
-    <t>6219.60</t>
-  </si>
-  <si>
-    <t>20210110171953</t>
-  </si>
-  <si>
-    <t>30050065</t>
-  </si>
-  <si>
-    <t>20210111000000</t>
-  </si>
-  <si>
-    <t>30050066</t>
-  </si>
-  <si>
-    <t>30050067</t>
-  </si>
-  <si>
-    <t>30050068</t>
-  </si>
-  <si>
-    <t>30050069</t>
-  </si>
-  <si>
-    <t>30050070</t>
-  </si>
-  <si>
-    <t>20210110092500</t>
-  </si>
-  <si>
-    <t>30050071</t>
-  </si>
-  <si>
-    <t>30050072</t>
-  </si>
-  <si>
-    <t>30050073</t>
-  </si>
-  <si>
-    <t>30050074</t>
-  </si>
-  <si>
-    <t>30050075</t>
-  </si>
-  <si>
-    <t>30050076</t>
+  </si>
+  <si>
+    <t>20221216235959</t>
+  </si>
+  <si>
+    <t>0.30</t>
   </si>
 </sst>
 </file>
@@ -1437,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AL8" sqref="AL8:AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1627,10 +1623,10 @@
     </row>
     <row r="2" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>61</v>
@@ -1687,7 +1683,7 @@
         <v>75</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>75</v>
@@ -1756,7 +1752,7 @@
         <v>90</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>91</v>
@@ -1768,7 +1764,7 @@
         <v>75</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BC2" s="1" t="s">
         <v>93</v>
@@ -1785,10 +1781,10 @@
     </row>
     <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -1845,7 +1841,7 @@
         <v>75</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>75</v>
@@ -1914,7 +1910,7 @@
         <v>90</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>91</v>
@@ -1926,7 +1922,7 @@
         <v>75</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>93</v>
@@ -1943,10 +1939,10 @@
     </row>
     <row r="4" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>61</v>
@@ -2003,7 +1999,7 @@
         <v>75</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>75</v>
@@ -2072,7 +2068,7 @@
         <v>90</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>91</v>
@@ -2084,7 +2080,7 @@
         <v>75</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>93</v>
@@ -2101,10 +2097,10 @@
     </row>
     <row r="5" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>61</v>
@@ -2161,7 +2157,7 @@
         <v>75</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>75</v>
@@ -2230,7 +2226,7 @@
         <v>90</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>91</v>
@@ -2242,7 +2238,7 @@
         <v>75</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>93</v>
@@ -2259,10 +2255,10 @@
     </row>
     <row r="6" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -2319,7 +2315,7 @@
         <v>75</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>75</v>
@@ -2388,7 +2384,7 @@
         <v>90</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="AX6" s="1" t="s">
         <v>91</v>
@@ -2400,7 +2396,7 @@
         <v>75</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>93</v>
@@ -2417,10 +2413,10 @@
     </row>
     <row r="7" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>61</v>
@@ -2477,7 +2473,7 @@
         <v>75</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>75</v>
@@ -2546,7 +2542,7 @@
         <v>90</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="AX7" s="1" t="s">
         <v>91</v>
@@ -2558,7 +2554,7 @@
         <v>75</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>93</v>
@@ -2575,10 +2571,10 @@
     </row>
     <row r="8" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>61</v>
@@ -2632,7 +2628,7 @@
         <v>75</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>75</v>
@@ -2686,13 +2682,13 @@
         <v>82</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>126</v>
@@ -2703,10 +2699,10 @@
     </row>
     <row r="9" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
@@ -2760,7 +2756,7 @@
         <v>75</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>75</v>
@@ -2814,13 +2810,13 @@
         <v>82</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>126</v>
@@ -2831,10 +2827,10 @@
     </row>
     <row r="10" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>61</v>
@@ -2888,7 +2884,7 @@
         <v>75</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>75</v>
@@ -2942,13 +2938,13 @@
         <v>82</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BC10" s="1" t="s">
         <v>126</v>
@@ -2959,10 +2955,10 @@
     </row>
     <row r="11" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>61</v>
@@ -3016,7 +3012,7 @@
         <v>75</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>75</v>
@@ -3070,13 +3066,13 @@
         <v>82</v>
       </c>
       <c r="AW11" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BA11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BB11" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>126</v>
@@ -3093,10 +3089,10 @@
     </row>
     <row r="12" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>61</v>
@@ -3150,7 +3146,7 @@
         <v>75</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>75</v>
@@ -3204,13 +3200,13 @@
         <v>82</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BA12" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>126</v>
@@ -3221,10 +3217,10 @@
     </row>
     <row r="13" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>61</v>
@@ -3278,7 +3274,7 @@
         <v>75</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>75</v>
@@ -3332,13 +3328,13 @@
         <v>82</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BA13" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BB13" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>126</v>
@@ -3376,10 +3372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB24"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3433,9 +3429,9 @@
     <col min="54" max="54" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -3489,13 +3485,13 @@
         <v>140</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>141</v>
@@ -3513,13 +3509,13 @@
         <v>145</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>318</v>
+        <v>146</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>147</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>148</v>
@@ -3596,10 +3592,16 @@
       <c r="BB1" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="BC1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>344</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>62</v>
@@ -3611,10 +3613,10 @@
         <v>172</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>173</v>
@@ -3623,7 +3625,7 @@
         <v>63</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
+        <v>347</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>63</v>
@@ -3641,7 +3643,7 @@
         <v>104</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>68</v>
@@ -3650,7 +3652,7 @@
         <v>177</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>60</v>
@@ -3677,10 +3679,10 @@
         <v>178</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>178</v>
@@ -3689,7 +3691,7 @@
         <v>178</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>75</v>
@@ -3698,10 +3700,10 @@
         <v>178</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>187</v>
+        <v>348</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>82</v>
@@ -3757,10 +3759,16 @@
       <c r="BB2" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="BC2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>62</v>
@@ -3772,10 +3780,10 @@
         <v>172</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>173</v>
@@ -3784,7 +3792,7 @@
         <v>63</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>347</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>63</v>
@@ -3802,7 +3810,7 @@
         <v>95</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>96</v>
@@ -3811,7 +3819,7 @@
         <v>177</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>60</v>
@@ -3835,13 +3843,13 @@
         <v>178</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>178</v>
@@ -3850,7 +3858,7 @@
         <v>178</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>75</v>
@@ -3859,10 +3867,10 @@
         <v>178</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>82</v>
@@ -3871,7 +3879,7 @@
         <v>75</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="AN3" s="1" t="s">
         <v>75</v>
@@ -3918,10 +3926,16 @@
       <c r="BB3" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="BC3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>62</v>
@@ -3933,10 +3947,10 @@
         <v>172</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>173</v>
@@ -3945,7 +3959,7 @@
         <v>63</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>65</v>
+        <v>347</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>63</v>
@@ -3963,7 +3977,7 @@
         <v>95</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>96</v>
@@ -3972,7 +3986,7 @@
         <v>177</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>60</v>
@@ -3999,10 +4013,10 @@
         <v>178</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>178</v>
@@ -4011,7 +4025,7 @@
         <v>178</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="AG4" s="1" t="s">
         <v>75</v>
@@ -4020,10 +4034,10 @@
         <v>178</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>82</v>
@@ -4079,10 +4093,16 @@
       <c r="BB4" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="BC4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>62</v>
@@ -4094,10 +4114,10 @@
         <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>173</v>
@@ -4106,7 +4126,7 @@
         <v>63</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>65</v>
+        <v>347</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>63</v>
@@ -4124,7 +4144,7 @@
         <v>115</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>96</v>
@@ -4133,7 +4153,7 @@
         <v>177</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>60</v>
@@ -4157,13 +4177,13 @@
         <v>178</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>178</v>
@@ -4172,7 +4192,7 @@
         <v>178</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="AG5" s="1" t="s">
         <v>75</v>
@@ -4181,10 +4201,10 @@
         <v>178</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>191</v>
+        <v>350</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>82</v>
@@ -4193,7 +4213,7 @@
         <v>75</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="AN5" s="1" t="s">
         <v>75</v>
@@ -4240,10 +4260,16 @@
       <c r="BB5" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="BC5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>62</v>
@@ -4255,10 +4281,10 @@
         <v>172</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>173</v>
@@ -4267,7 +4293,7 @@
         <v>63</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>65</v>
+        <v>347</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>63</v>
@@ -4285,7 +4311,7 @@
         <v>115</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>96</v>
@@ -4294,7 +4320,7 @@
         <v>177</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>60</v>
@@ -4321,10 +4347,10 @@
         <v>178</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>178</v>
@@ -4333,7 +4359,7 @@
         <v>178</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="AG6" s="1" t="s">
         <v>75</v>
@@ -4342,10 +4368,10 @@
         <v>178</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>191</v>
+        <v>350</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>82</v>
@@ -4401,10 +4427,16 @@
       <c r="BB6" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="BC6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>62</v>
@@ -4416,10 +4448,10 @@
         <v>172</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>173</v>
@@ -4428,7 +4460,7 @@
         <v>63</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>65</v>
+        <v>347</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>63</v>
@@ -4455,7 +4487,7 @@
         <v>177</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>60</v>
@@ -4482,31 +4514,31 @@
         <v>178</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="AC7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="AJ7" s="1" t="s">
-        <v>180</v>
+        <v>351</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>82</v>
@@ -4562,46 +4594,50 @@
       <c r="BB7" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="BC7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -4613,7 +4649,7 @@
         <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -4628,7 +4664,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>30</v>
@@ -4637,7 +4673,7 @@
         <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>1</v>
@@ -4646,67 +4682,67 @@
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>140</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>164</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>321</v>
+        <v>55</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>148</v>
@@ -4717,19 +4753,19 @@
     </row>
     <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>62</v>
@@ -4750,13 +4786,13 @@
         <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>68</v>
@@ -4774,13 +4810,13 @@
         <v>70</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>60</v>
@@ -4804,16 +4840,16 @@
         <v>75</v>
       </c>
       <c r="AF2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="AI2" s="1" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>178</v>
@@ -4827,19 +4863,19 @@
     </row>
     <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>62</v>
@@ -4851,25 +4887,25 @@
         <v>63</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>93</v>
@@ -4878,19 +4914,19 @@
         <v>177</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="V3" s="1" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>60</v>
@@ -4914,16 +4950,16 @@
         <v>75</v>
       </c>
       <c r="AF3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="AI3" s="1" t="s">
-        <v>220</v>
+        <v>354</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>178</v>
@@ -4937,19 +4973,19 @@
     </row>
     <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>62</v>
@@ -4961,25 +4997,25 @@
         <v>63</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>93</v>
@@ -4988,19 +5024,19 @@
         <v>177</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>70</v>
       </c>
       <c r="T4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="V4" s="1" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>60</v>
@@ -5024,16 +5060,16 @@
         <v>75</v>
       </c>
       <c r="AF4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="AI4" s="1" t="s">
-        <v>223</v>
+        <v>354</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>178</v>
@@ -5047,19 +5083,19 @@
     </row>
     <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>62</v>
@@ -5074,19 +5110,19 @@
         <v>95</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>96</v>
@@ -5098,19 +5134,19 @@
         <v>177</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="T5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="V5" s="1" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>60</v>
@@ -5134,16 +5170,16 @@
         <v>75</v>
       </c>
       <c r="AF5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AG5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="AI5" s="1" t="s">
-        <v>223</v>
+        <v>354</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>178</v>
@@ -5157,19 +5193,19 @@
     </row>
     <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>62</v>
@@ -5190,13 +5226,13 @@
         <v>60</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>96</v>
@@ -5214,13 +5250,13 @@
         <v>70</v>
       </c>
       <c r="T6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="V6" s="1" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>60</v>
@@ -5244,16 +5280,16 @@
         <v>75</v>
       </c>
       <c r="AF6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AG6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="AI6" s="1" t="s">
-        <v>224</v>
+        <v>354</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>178</v>
@@ -5267,19 +5303,19 @@
     </row>
     <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>62</v>
@@ -5300,13 +5336,13 @@
         <v>60</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>96</v>
@@ -5324,13 +5360,13 @@
         <v>70</v>
       </c>
       <c r="T7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="V7" s="1" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>60</v>
@@ -5354,16 +5390,16 @@
         <v>75</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>224</v>
+        <v>354</v>
       </c>
       <c r="AJ7" s="1" t="s">
         <v>178</v>
@@ -5375,14 +5411,6 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5391,10 +5419,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX24"/>
+  <dimension ref="A1:CX14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="BU20" sqref="BU20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5492,7 +5520,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>134</v>
@@ -5501,10 +5529,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>24</v>
@@ -5519,10 +5547,10 @@
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -5531,7 +5559,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>6</v>
@@ -5561,7 +5589,7 @@
         <v>147</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>30</v>
@@ -5570,31 +5598,31 @@
         <v>15</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>148</v>
@@ -5603,181 +5631,181 @@
         <v>149</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>140</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>155</v>
       </c>
       <c r="BG1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BO1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="BS1" s="1" t="s">
         <v>164</v>
       </c>
       <c r="BT1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CB1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CD1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="CC1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="CT1" s="1" t="s">
         <v>55</v>
@@ -5797,19 +5825,19 @@
     </row>
     <row r="2" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>103</v>
@@ -5824,7 +5852,7 @@
         <v>65</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>62</v>
@@ -5848,7 +5876,7 @@
         <v>104</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>70</v>
@@ -5860,7 +5888,7 @@
         <v>86</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>107</v>
@@ -5869,28 +5897,28 @@
         <v>60</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>82</v>
@@ -5899,7 +5927,7 @@
         <v>82</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>178</v>
@@ -5911,10 +5939,10 @@
         <v>177</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>60</v>
@@ -5926,7 +5954,7 @@
         <v>75</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>75</v>
@@ -5935,13 +5963,13 @@
         <v>75</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AZ2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB2" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="BC2" s="1" t="s">
         <v>75</v>
@@ -5959,10 +5987,10 @@
         <v>81</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>60</v>
@@ -5974,25 +6002,25 @@
         <v>81</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BO2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>178</v>
@@ -6007,10 +6035,10 @@
         <v>82</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="CE2" s="1" t="s">
         <v>172</v>
@@ -6028,7 +6056,7 @@
         <v>75</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="CT2" s="1" t="s">
         <v>75</v>
@@ -6037,10 +6065,10 @@
         <v>93</v>
       </c>
       <c r="CV2" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="CX2" s="1" t="s">
         <v>75</v>
@@ -6048,19 +6076,19 @@
     </row>
     <row r="3" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>66</v>
@@ -6075,7 +6103,7 @@
         <v>65</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>62</v>
@@ -6120,28 +6148,28 @@
         <v>60</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>116</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AI3" s="1" t="s">
         <v>82</v>
@@ -6150,7 +6178,7 @@
         <v>82</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AL3" s="1" t="s">
         <v>178</v>
@@ -6162,10 +6190,10 @@
         <v>177</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>60</v>
@@ -6177,7 +6205,7 @@
         <v>75</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>75</v>
@@ -6186,13 +6214,13 @@
         <v>75</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AZ3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB3" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>75</v>
@@ -6210,10 +6238,10 @@
         <v>81</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BK3" s="1" t="s">
         <v>60</v>
@@ -6225,25 +6253,25 @@
         <v>81</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BO3" s="1" t="s">
         <v>81</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>81</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BS3" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BW3" s="1" t="s">
         <v>178</v>
@@ -6258,10 +6286,10 @@
         <v>82</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="CE3" s="1" t="s">
         <v>172</v>
@@ -6279,7 +6307,7 @@
         <v>75</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="CT3" s="1" t="s">
         <v>75</v>
@@ -6288,10 +6316,10 @@
         <v>93</v>
       </c>
       <c r="CV3" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="CX3" s="1" t="s">
         <v>75</v>
@@ -6299,19 +6327,19 @@
     </row>
     <row r="4" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>120</v>
@@ -6326,7 +6354,7 @@
         <v>65</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>62</v>
@@ -6350,7 +6378,7 @@
         <v>115</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>70</v>
@@ -6362,7 +6390,7 @@
         <v>86</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>121</v>
@@ -6371,28 +6399,28 @@
         <v>60</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>116</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>82</v>
@@ -6401,7 +6429,7 @@
         <v>82</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AL4" s="1" t="s">
         <v>178</v>
@@ -6413,10 +6441,10 @@
         <v>177</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>60</v>
@@ -6428,7 +6456,7 @@
         <v>75</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>75</v>
@@ -6437,13 +6465,13 @@
         <v>75</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AZ4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB4" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>75</v>
@@ -6461,10 +6489,10 @@
         <v>81</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BK4" s="1" t="s">
         <v>60</v>
@@ -6476,25 +6504,25 @@
         <v>81</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BO4" s="1" t="s">
         <v>81</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>81</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BS4" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BW4" s="1" t="s">
         <v>178</v>
@@ -6509,10 +6537,10 @@
         <v>82</v>
       </c>
       <c r="CC4" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="CD4" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="CE4" s="1" t="s">
         <v>172</v>
@@ -6530,7 +6558,7 @@
         <v>75</v>
       </c>
       <c r="CS4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CT4" s="1" t="s">
         <v>60</v>
@@ -6539,10 +6567,10 @@
         <v>93</v>
       </c>
       <c r="CV4" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="CW4" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="CX4" s="1" t="s">
         <v>60</v>
@@ -6550,19 +6578,19 @@
     </row>
     <row r="5" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>114</v>
@@ -6577,7 +6605,7 @@
         <v>65</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>62</v>
@@ -6601,7 +6629,7 @@
         <v>115</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>70</v>
@@ -6613,7 +6641,7 @@
         <v>86</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>117</v>
@@ -6622,37 +6650,37 @@
         <v>60</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>116</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AL5" s="1" t="s">
         <v>178</v>
@@ -6664,10 +6692,10 @@
         <v>177</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>60</v>
@@ -6679,7 +6707,7 @@
         <v>75</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>75</v>
@@ -6688,13 +6716,13 @@
         <v>75</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AZ5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB5" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>75</v>
@@ -6712,10 +6740,10 @@
         <v>81</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BK5" s="1" t="s">
         <v>60</v>
@@ -6727,25 +6755,25 @@
         <v>81</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BO5" s="1" t="s">
         <v>81</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>81</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BS5" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BW5" s="1" t="s">
         <v>178</v>
@@ -6760,10 +6788,10 @@
         <v>82</v>
       </c>
       <c r="CC5" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="CD5" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="CE5" s="1" t="s">
         <v>172</v>
@@ -6781,7 +6809,7 @@
         <v>75</v>
       </c>
       <c r="CS5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CT5" s="1" t="s">
         <v>75</v>
@@ -6790,10 +6818,10 @@
         <v>93</v>
       </c>
       <c r="CV5" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="CW5" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="CX5" s="1" t="s">
         <v>75</v>
@@ -6801,19 +6829,19 @@
     </row>
     <row r="6" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>94</v>
@@ -6828,7 +6856,7 @@
         <v>65</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>62</v>
@@ -6852,7 +6880,7 @@
         <v>95</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>70</v>
@@ -6864,7 +6892,7 @@
         <v>86</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>99</v>
@@ -6873,37 +6901,37 @@
         <v>60</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AL6" s="1" t="s">
         <v>178</v>
@@ -6915,10 +6943,10 @@
         <v>177</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AQ6" s="1" t="s">
         <v>60</v>
@@ -6930,7 +6958,7 @@
         <v>75</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AU6" s="1" t="s">
         <v>75</v>
@@ -6939,13 +6967,13 @@
         <v>75</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AZ6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB6" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>75</v>
@@ -6963,10 +6991,10 @@
         <v>81</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BK6" s="1" t="s">
         <v>60</v>
@@ -6978,25 +7006,25 @@
         <v>81</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BO6" s="1" t="s">
         <v>81</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BQ6" s="1" t="s">
         <v>81</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BS6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BW6" s="1" t="s">
         <v>178</v>
@@ -7011,10 +7039,10 @@
         <v>82</v>
       </c>
       <c r="CC6" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="CD6" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="CE6" s="1" t="s">
         <v>172</v>
@@ -7032,7 +7060,7 @@
         <v>75</v>
       </c>
       <c r="CS6" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="CT6" s="1" t="s">
         <v>75</v>
@@ -7041,10 +7069,10 @@
         <v>93</v>
       </c>
       <c r="CV6" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="CW6" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="CX6" s="1" t="s">
         <v>75</v>
@@ -7052,19 +7080,19 @@
     </row>
     <row r="7" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>111</v>
@@ -7079,7 +7107,7 @@
         <v>65</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>62</v>
@@ -7103,7 +7131,7 @@
         <v>95</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>70</v>
@@ -7115,7 +7143,7 @@
         <v>86</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>112</v>
@@ -7124,28 +7152,28 @@
         <v>60</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>82</v>
@@ -7154,7 +7182,7 @@
         <v>82</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AL7" s="1" t="s">
         <v>178</v>
@@ -7166,10 +7194,10 @@
         <v>177</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AQ7" s="1" t="s">
         <v>60</v>
@@ -7181,7 +7209,7 @@
         <v>75</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AU7" s="1" t="s">
         <v>75</v>
@@ -7190,13 +7218,13 @@
         <v>75</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AZ7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB7" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>75</v>
@@ -7214,10 +7242,10 @@
         <v>81</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BK7" s="1" t="s">
         <v>60</v>
@@ -7229,25 +7257,25 @@
         <v>81</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BO7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BQ7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BS7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="BW7" s="1" t="s">
         <v>178</v>
@@ -7262,10 +7290,10 @@
         <v>82</v>
       </c>
       <c r="CC7" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="CD7" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="CE7" s="1" t="s">
         <v>172</v>
@@ -7283,7 +7311,7 @@
         <v>75</v>
       </c>
       <c r="CS7" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="CT7" s="1" t="s">
         <v>60</v>
@@ -7292,10 +7320,10 @@
         <v>93</v>
       </c>
       <c r="CV7" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="CW7" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="CX7" s="1" t="s">
         <v>60</v>
@@ -7308,16 +7336,6 @@
     <row r="12" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/沪权/普通开仓/测试结果.xlsx
+++ b/用例数据/沪权/普通开仓/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stkoptionsettlement" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="359">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -940,51 +940,12 @@
     <t>0.420</t>
   </si>
   <si>
-    <t>30050079</t>
-  </si>
-  <si>
-    <t>20210110172013</t>
-  </si>
-  <si>
     <t>20210110000000</t>
   </si>
   <si>
-    <t>5553147.590</t>
-  </si>
-  <si>
-    <t>30050077</t>
-  </si>
-  <si>
-    <t>5552846.360</t>
-  </si>
-  <si>
-    <t>30050082</t>
-  </si>
-  <si>
-    <t>5556336.280</t>
-  </si>
-  <si>
-    <t>30050081</t>
-  </si>
-  <si>
-    <t>5555365.000</t>
-  </si>
-  <si>
     <t>6219.600</t>
   </si>
   <si>
-    <t>30050080</t>
-  </si>
-  <si>
-    <t>5554393.720</t>
-  </si>
-  <si>
-    <t>30050078</t>
-  </si>
-  <si>
-    <t>5554092.490</t>
-  </si>
-  <si>
     <t>5924.60</t>
   </si>
   <si>
@@ -1054,34 +1015,85 @@
     <t>YDEXERCISEQTY</t>
   </si>
   <si>
-    <t>20221216000000</t>
-  </si>
-  <si>
     <t>000117212005</t>
   </si>
   <si>
     <t>焦振鹏沪权</t>
   </si>
   <si>
-    <t>0.09433000</t>
-  </si>
-  <si>
-    <t>0.12477000</t>
-  </si>
-  <si>
-    <t>0.09717000</t>
-  </si>
-  <si>
-    <t>0.09723000</t>
-  </si>
-  <si>
     <t>OPENCOMMISION</t>
   </si>
   <si>
-    <t>20221216235959</t>
-  </si>
-  <si>
-    <t>0.30</t>
+    <t>30000844</t>
+  </si>
+  <si>
+    <t>208_001_038</t>
+  </si>
+  <si>
+    <t>20230201235959</t>
+  </si>
+  <si>
+    <t>20230202110347</t>
+  </si>
+  <si>
+    <t>998791577.200</t>
+  </si>
+  <si>
+    <t>30000843</t>
+  </si>
+  <si>
+    <t>DIFFCOMMISION</t>
+  </si>
+  <si>
+    <t>30000658</t>
+  </si>
+  <si>
+    <t>20230202110346</t>
+  </si>
+  <si>
+    <t>20230201000000</t>
+  </si>
+  <si>
+    <t>998549736.120</t>
+  </si>
+  <si>
+    <t>30000656</t>
+  </si>
+  <si>
+    <t>30000661</t>
+  </si>
+  <si>
+    <t>30000660</t>
+  </si>
+  <si>
+    <t>30000659</t>
+  </si>
+  <si>
+    <t>30000657</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.09449000</t>
+  </si>
+  <si>
+    <t>0.12461300</t>
+  </si>
+  <si>
+    <t>0.09712800</t>
+  </si>
+  <si>
+    <t>0.09738000</t>
   </si>
 </sst>
 </file>
@@ -1437,9 +1449,9 @@
       <selection activeCell="AL8" sqref="AL8:AL13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,12 +1633,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>61</v>
@@ -1683,7 +1695,7 @@
         <v>75</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>75</v>
@@ -1752,7 +1764,7 @@
         <v>90</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>91</v>
@@ -1764,7 +1776,7 @@
         <v>75</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BC2" s="1" t="s">
         <v>93</v>
@@ -1779,12 +1791,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -1841,7 +1853,7 @@
         <v>75</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>75</v>
@@ -1910,7 +1922,7 @@
         <v>90</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>91</v>
@@ -1922,7 +1934,7 @@
         <v>75</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>93</v>
@@ -1937,12 +1949,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>61</v>
@@ -1999,7 +2011,7 @@
         <v>75</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>75</v>
@@ -2068,7 +2080,7 @@
         <v>90</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>91</v>
@@ -2080,7 +2092,7 @@
         <v>75</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>93</v>
@@ -2095,12 +2107,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>61</v>
@@ -2157,7 +2169,7 @@
         <v>75</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>75</v>
@@ -2226,7 +2238,7 @@
         <v>90</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>91</v>
@@ -2238,7 +2250,7 @@
         <v>75</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>93</v>
@@ -2253,12 +2265,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -2315,7 +2327,7 @@
         <v>75</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>75</v>
@@ -2384,7 +2396,7 @@
         <v>90</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AX6" s="1" t="s">
         <v>91</v>
@@ -2396,7 +2408,7 @@
         <v>75</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>93</v>
@@ -2411,12 +2423,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>61</v>
@@ -2473,7 +2485,7 @@
         <v>75</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>75</v>
@@ -2542,7 +2554,7 @@
         <v>90</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AX7" s="1" t="s">
         <v>91</v>
@@ -2554,7 +2566,7 @@
         <v>75</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>93</v>
@@ -2569,12 +2581,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>61</v>
@@ -2628,7 +2640,7 @@
         <v>75</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>75</v>
@@ -2682,13 +2694,13 @@
         <v>82</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>126</v>
@@ -2697,12 +2709,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
@@ -2756,7 +2768,7 @@
         <v>75</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>75</v>
@@ -2810,13 +2822,13 @@
         <v>82</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>126</v>
@@ -2825,12 +2837,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>61</v>
@@ -2884,7 +2896,7 @@
         <v>75</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>75</v>
@@ -2938,13 +2950,13 @@
         <v>82</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BC10" s="1" t="s">
         <v>126</v>
@@ -2953,12 +2965,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>61</v>
@@ -3012,7 +3024,7 @@
         <v>75</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>75</v>
@@ -3066,13 +3078,13 @@
         <v>82</v>
       </c>
       <c r="AW11" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BA11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BB11" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>126</v>
@@ -3087,12 +3099,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>61</v>
@@ -3146,7 +3158,7 @@
         <v>75</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>75</v>
@@ -3200,13 +3212,13 @@
         <v>82</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BA12" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>126</v>
@@ -3215,12 +3227,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>61</v>
@@ -3274,7 +3286,7 @@
         <v>75</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>75</v>
@@ -3328,13 +3340,13 @@
         <v>82</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BA13" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BB13" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>126</v>
@@ -3349,20 +3361,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3374,62 +3386,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.25" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="15" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="15" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.5" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>218</v>
       </c>
@@ -3485,13 +3497,13 @@
         <v>140</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>141</v>
@@ -3515,7 +3527,7 @@
         <v>147</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>148</v>
@@ -3593,15 +3605,15 @@
         <v>171</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="BD1" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>62</v>
@@ -3613,10 +3625,10 @@
         <v>172</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>173</v>
@@ -3625,7 +3637,7 @@
         <v>63</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>63</v>
@@ -3703,7 +3715,7 @@
         <v>185</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>82</v>
@@ -3766,9 +3778,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>62</v>
@@ -3780,10 +3792,10 @@
         <v>172</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>173</v>
@@ -3792,7 +3804,7 @@
         <v>63</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>63</v>
@@ -3843,7 +3855,7 @@
         <v>178</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>182</v>
@@ -3870,7 +3882,7 @@
         <v>216</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>82</v>
@@ -3879,7 +3891,7 @@
         <v>75</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="AN3" s="1" t="s">
         <v>75</v>
@@ -3933,9 +3945,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>62</v>
@@ -3947,10 +3959,10 @@
         <v>172</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>173</v>
@@ -3959,7 +3971,7 @@
         <v>63</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>63</v>
@@ -4037,7 +4049,7 @@
         <v>216</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>82</v>
@@ -4100,9 +4112,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>62</v>
@@ -4114,10 +4126,10 @@
         <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>173</v>
@@ -4126,7 +4138,7 @@
         <v>63</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>63</v>
@@ -4177,7 +4189,7 @@
         <v>178</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>187</v>
@@ -4204,7 +4216,7 @@
         <v>180</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>82</v>
@@ -4213,7 +4225,7 @@
         <v>75</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="AN5" s="1" t="s">
         <v>75</v>
@@ -4267,9 +4279,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>62</v>
@@ -4281,10 +4293,10 @@
         <v>172</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>173</v>
@@ -4293,7 +4305,7 @@
         <v>63</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>63</v>
@@ -4371,7 +4383,7 @@
         <v>180</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>82</v>
@@ -4434,9 +4446,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>62</v>
@@ -4448,10 +4460,10 @@
         <v>172</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>173</v>
@@ -4460,7 +4472,7 @@
         <v>63</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>63</v>
@@ -4538,7 +4550,7 @@
         <v>180</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>82</v>
@@ -4601,19 +4613,19 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4626,16 +4638,16 @@
   <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>218</v>
       </c>
@@ -4739,7 +4751,7 @@
         <v>205</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>206</v>
@@ -4751,15 +4763,15 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>173</v>
@@ -4792,7 +4804,7 @@
         <v>210</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>68</v>
@@ -4816,7 +4828,7 @@
         <v>211</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>60</v>
@@ -4849,7 +4861,7 @@
         <v>212</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>178</v>
@@ -4861,15 +4873,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>173</v>
@@ -4902,7 +4914,7 @@
         <v>216</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>96</v>
@@ -4926,7 +4938,7 @@
         <v>211</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>60</v>
@@ -4959,7 +4971,7 @@
         <v>212</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>178</v>
@@ -4971,15 +4983,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>173</v>
@@ -5012,7 +5024,7 @@
         <v>214</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>68</v>
@@ -5036,7 +5048,7 @@
         <v>211</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>60</v>
@@ -5069,7 +5081,7 @@
         <v>212</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>178</v>
@@ -5081,15 +5093,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>173</v>
@@ -5122,7 +5134,7 @@
         <v>216</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>96</v>
@@ -5146,7 +5158,7 @@
         <v>211</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>60</v>
@@ -5179,7 +5191,7 @@
         <v>212</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>178</v>
@@ -5191,15 +5203,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>173</v>
@@ -5232,7 +5244,7 @@
         <v>180</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>96</v>
@@ -5256,7 +5268,7 @@
         <v>211</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>60</v>
@@ -5301,15 +5313,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>173</v>
@@ -5342,7 +5354,7 @@
         <v>180</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>96</v>
@@ -5366,7 +5378,7 @@
         <v>211</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>60</v>
@@ -5419,103 +5431,101 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX14"/>
+  <dimension ref="A1:CY14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
-      <selection activeCell="BU20" sqref="BU20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="50" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="75" max="76" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="89" max="91" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="15" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="87" max="89" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="90" max="91" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -5822,10 +5832,13 @@
       <c r="CX1" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="CY1" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
-    <row r="2" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>280</v>
@@ -5834,10 +5847,10 @@
         <v>173</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>103</v>
@@ -5846,7 +5859,7 @@
         <v>172</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>61</v>
+        <v>332</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>65</v>
@@ -5858,7 +5871,7 @@
         <v>62</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>61</v>
+        <v>332</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>65</v>
@@ -5885,7 +5898,7 @@
         <v>68</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>184</v>
@@ -5903,13 +5916,13 @@
         <v>128</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>301</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>75</v>
@@ -6073,10 +6086,13 @@
       <c r="CX2" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="CY2" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="3" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>280</v>
@@ -6085,10 +6101,10 @@
         <v>173</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>66</v>
@@ -6097,7 +6113,7 @@
         <v>172</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>332</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>65</v>
@@ -6109,7 +6125,7 @@
         <v>62</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>61</v>
+        <v>332</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>65</v>
@@ -6136,7 +6152,7 @@
         <v>68</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>179</v>
@@ -6154,13 +6170,13 @@
         <v>116</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>283</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>75</v>
@@ -6324,31 +6340,31 @@
       <c r="CX3" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="CY3" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="4" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>332</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>65</v>
@@ -6360,7 +6376,7 @@
         <v>62</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>61</v>
+        <v>332</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>65</v>
@@ -6387,46 +6403,43 @@
         <v>96</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="Z4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>285</v>
@@ -6434,12 +6447,6 @@
       <c r="AL4" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AM4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="AO4" s="1" t="s">
         <v>286</v>
       </c>
@@ -6558,48 +6565,45 @@
         <v>75</v>
       </c>
       <c r="CS4" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CU4" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="CV4" s="1" t="s">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="CW4" s="1" t="s">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="CX4" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
+      </c>
+      <c r="CY4" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>114</v>
+        <v>338</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>61</v>
+        <v>332</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>65</v>
@@ -6611,7 +6615,7 @@
         <v>62</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>61</v>
+        <v>332</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>65</v>
@@ -6626,10 +6630,10 @@
         <v>174</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>70</v>
@@ -6638,46 +6642,43 @@
         <v>96</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>285</v>
@@ -6685,12 +6686,6 @@
       <c r="AL5" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AM5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="AO5" s="1" t="s">
         <v>286</v>
       </c>
@@ -6809,27 +6804,27 @@
         <v>75</v>
       </c>
       <c r="CS5" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="CT5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CU5" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="CV5" s="1" t="s">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="CW5" s="1" t="s">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="CX5" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="CY5" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="6" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>294</v>
@@ -6838,19 +6833,19 @@
         <v>173</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>332</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>65</v>
@@ -6862,7 +6857,7 @@
         <v>62</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>61</v>
+        <v>332</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>65</v>
@@ -6877,10 +6872,10 @@
         <v>174</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>70</v>
@@ -6889,46 +6884,46 @@
         <v>96</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>285</v>
@@ -7060,10 +7055,10 @@
         <v>75</v>
       </c>
       <c r="CS6" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="CT6" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="CU6" s="1" t="s">
         <v>93</v>
@@ -7072,15 +7067,18 @@
         <v>292</v>
       </c>
       <c r="CW6" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="CX6" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="CY6" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>294</v>
@@ -7089,19 +7087,19 @@
         <v>173</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>332</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>65</v>
@@ -7113,7 +7111,7 @@
         <v>62</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>61</v>
+        <v>332</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>65</v>
@@ -7128,10 +7126,10 @@
         <v>174</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>70</v>
@@ -7140,46 +7138,46 @@
         <v>96</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>285</v>
@@ -7311,10 +7309,10 @@
         <v>75</v>
       </c>
       <c r="CS7" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="CT7" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="CU7" s="1" t="s">
         <v>93</v>
@@ -7323,19 +7321,528 @@
         <v>292</v>
       </c>
       <c r="CW7" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="CX7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CY7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BM8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR8" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BS8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV8" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BW8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BX8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BY8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CC8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="CD8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="CE8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CH8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CI8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CJ8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CK8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CS8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="CT8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CU8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CV8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="CW8" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="CX7" s="1" t="s">
+      <c r="CX8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CY8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z9" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AA9" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR9" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BS9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV9" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BW9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BX9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BY9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CC9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="CD9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="CE9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CH9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CI9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CJ9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CK9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CS9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="CT9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CU9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CV9" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="CW9" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="CX9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CY9" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="8" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
